--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2902,28 +2902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2910.628212464645</v>
+        <v>3008.10776602805</v>
       </c>
       <c r="AB2" t="n">
-        <v>3982.449928148518</v>
+        <v>4115.825753828366</v>
       </c>
       <c r="AC2" t="n">
-        <v>3602.370496409452</v>
+        <v>3723.017120480557</v>
       </c>
       <c r="AD2" t="n">
-        <v>2910628.212464646</v>
+        <v>3008107.76602805</v>
       </c>
       <c r="AE2" t="n">
-        <v>3982449.928148518</v>
+        <v>4115825.753828366</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.485405476400701e-07</v>
+        <v>1.755048354736269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3602370.496409452</v>
+        <v>3723017.120480557</v>
       </c>
     </row>
     <row r="3">
@@ -3008,28 +3008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>977.2221381068736</v>
+        <v>1026.089881416158</v>
       </c>
       <c r="AB3" t="n">
-        <v>1337.078441355866</v>
+        <v>1403.941443644308</v>
       </c>
       <c r="AC3" t="n">
-        <v>1209.46955151424</v>
+        <v>1269.951242707087</v>
       </c>
       <c r="AD3" t="n">
-        <v>977222.1381068736</v>
+        <v>1026089.881416158</v>
       </c>
       <c r="AE3" t="n">
-        <v>1337078.441355866</v>
+        <v>1403941.443644308</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.781686513123374e-06</v>
+        <v>3.29658652051585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.529166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1209469.55151424</v>
+        <v>1269951.242707087</v>
       </c>
     </row>
     <row r="4">
@@ -3114,28 +3114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>745.3631078237268</v>
+        <v>793.9749180778472</v>
       </c>
       <c r="AB4" t="n">
-        <v>1019.838687223968</v>
+        <v>1086.351510615366</v>
       </c>
       <c r="AC4" t="n">
-        <v>922.506714267899</v>
+        <v>982.6716471461557</v>
       </c>
       <c r="AD4" t="n">
-        <v>745363.1078237267</v>
+        <v>793974.9180778472</v>
       </c>
       <c r="AE4" t="n">
-        <v>1019838.687223968</v>
+        <v>1086351.510615366</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.088335579739711e-06</v>
+        <v>3.863967578906444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.277083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>922506.714267899</v>
+        <v>982671.6471461557</v>
       </c>
     </row>
     <row r="5">
@@ -3220,28 +3220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>637.8388757775972</v>
+        <v>686.5359373777383</v>
       </c>
       <c r="AB5" t="n">
-        <v>872.7192893041249</v>
+        <v>939.3487573481718</v>
       </c>
       <c r="AC5" t="n">
-        <v>789.4281852021539</v>
+        <v>849.6986303311227</v>
       </c>
       <c r="AD5" t="n">
-        <v>637838.8757775972</v>
+        <v>686535.9373777383</v>
       </c>
       <c r="AE5" t="n">
-        <v>872719.2893041249</v>
+        <v>939348.7573481718</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.256540324653431e-06</v>
+        <v>4.175190395426117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>789428.185202154</v>
+        <v>849698.6303311227</v>
       </c>
     </row>
     <row r="6">
@@ -3326,28 +3326,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>580.7431820094164</v>
+        <v>617.2447325044302</v>
       </c>
       <c r="AB6" t="n">
-        <v>794.5984422062647</v>
+        <v>844.5414739282988</v>
       </c>
       <c r="AC6" t="n">
-        <v>718.763082108016</v>
+        <v>763.9396209779845</v>
       </c>
       <c r="AD6" t="n">
-        <v>580743.1820094164</v>
+        <v>617244.7325044302</v>
       </c>
       <c r="AE6" t="n">
-        <v>794598.4422062647</v>
+        <v>844541.4739282988</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.359972383754754e-06</v>
+        <v>4.366566784769091e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.439583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>718763.082108016</v>
+        <v>763939.6209779845</v>
       </c>
     </row>
     <row r="7">
@@ -3432,28 +3432,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>538.3562588527454</v>
+        <v>574.8578093477593</v>
       </c>
       <c r="AB7" t="n">
-        <v>736.6027839642342</v>
+        <v>786.5458156862685</v>
       </c>
       <c r="AC7" t="n">
-        <v>666.3024480911874</v>
+        <v>711.4789869611559</v>
       </c>
       <c r="AD7" t="n">
-        <v>538356.2588527454</v>
+        <v>574857.8093477592</v>
       </c>
       <c r="AE7" t="n">
-        <v>736602.7839642342</v>
+        <v>786545.8156862685</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.429851024529838e-06</v>
+        <v>4.49586056543945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.254166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>666302.4480911874</v>
+        <v>711478.9869611559</v>
       </c>
     </row>
     <row r="8">
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>526.8334488046463</v>
+        <v>563.3349992996602</v>
       </c>
       <c r="AB8" t="n">
-        <v>720.8367669059234</v>
+        <v>770.7797986279575</v>
       </c>
       <c r="AC8" t="n">
-        <v>652.0411175731776</v>
+        <v>697.2176564431463</v>
       </c>
       <c r="AD8" t="n">
-        <v>526833.4488046463</v>
+        <v>563334.9992996602</v>
       </c>
       <c r="AE8" t="n">
-        <v>720836.7669059234</v>
+        <v>770779.7986279575</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.44881600010554e-06</v>
+        <v>4.530950735558755e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.20625</v>
       </c>
       <c r="AH8" t="n">
-        <v>652041.1175731777</v>
+        <v>697217.6564431463</v>
       </c>
     </row>
     <row r="9">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>529.0374134596601</v>
+        <v>565.5389639546739</v>
       </c>
       <c r="AB9" t="n">
-        <v>723.8523285789715</v>
+        <v>773.7953603010056</v>
       </c>
       <c r="AC9" t="n">
-        <v>654.7688782725177</v>
+        <v>699.9454171424862</v>
       </c>
       <c r="AD9" t="n">
-        <v>529037.4134596601</v>
+        <v>565538.963954674</v>
       </c>
       <c r="AE9" t="n">
-        <v>723852.3285789716</v>
+        <v>773795.3603010057</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.448524231250528e-06</v>
+        <v>4.530410886787688e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.20625</v>
       </c>
       <c r="AH9" t="n">
-        <v>654768.8782725177</v>
+        <v>699945.4171424862</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1750.082806017404</v>
+        <v>1832.343450091854</v>
       </c>
       <c r="AB2" t="n">
-        <v>2394.540503397332</v>
+        <v>2507.093145703483</v>
       </c>
       <c r="AC2" t="n">
-        <v>2166.008918511795</v>
+        <v>2267.819694604872</v>
       </c>
       <c r="AD2" t="n">
-        <v>1750082.806017404</v>
+        <v>1832343.450091854</v>
       </c>
       <c r="AE2" t="n">
-        <v>2394540.503397333</v>
+        <v>2507093.145703483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248975843868473e-06</v>
+        <v>2.380740715851121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2166008.918511795</v>
+        <v>2267819.694604872</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>755.1304136537549</v>
+        <v>802.1852621846238</v>
       </c>
       <c r="AB3" t="n">
-        <v>1033.202745963734</v>
+        <v>1097.585265637076</v>
       </c>
       <c r="AC3" t="n">
-        <v>934.5953259981162</v>
+        <v>992.8332683552678</v>
       </c>
       <c r="AD3" t="n">
-        <v>755130.4136537549</v>
+        <v>802185.2621846237</v>
       </c>
       <c r="AE3" t="n">
-        <v>1033202.745963734</v>
+        <v>1097585.265637076</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018946210641909e-06</v>
+        <v>3.848423066294865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>934595.3259981162</v>
+        <v>992833.2683552678</v>
       </c>
     </row>
     <row r="4">
@@ -4153,28 +4153,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>590.685273042871</v>
+        <v>637.6547807191685</v>
       </c>
       <c r="AB4" t="n">
-        <v>808.201649772338</v>
+        <v>872.4674023234817</v>
       </c>
       <c r="AC4" t="n">
-        <v>731.0680186362049</v>
+        <v>789.2003379614177</v>
       </c>
       <c r="AD4" t="n">
-        <v>590685.273042871</v>
+        <v>637654.7807191685</v>
       </c>
       <c r="AE4" t="n">
-        <v>808201.649772338</v>
+        <v>872467.4023234816</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298592445379497e-06</v>
+        <v>4.381471948178881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.839583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>731068.0186362049</v>
+        <v>789200.3379614177</v>
       </c>
     </row>
     <row r="5">
@@ -4259,28 +4259,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>513.8733836676901</v>
+        <v>549.0792687198211</v>
       </c>
       <c r="AB5" t="n">
-        <v>703.1042340278186</v>
+        <v>751.2744791301755</v>
       </c>
       <c r="AC5" t="n">
-        <v>636.0009527451932</v>
+        <v>679.5738972623446</v>
       </c>
       <c r="AD5" t="n">
-        <v>513873.3836676901</v>
+        <v>549079.2687198211</v>
       </c>
       <c r="AE5" t="n">
-        <v>703104.2340278187</v>
+        <v>751274.4791301754</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.452073406376868e-06</v>
+        <v>4.674030346924724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.411458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>636000.9527451933</v>
+        <v>679573.8972623446</v>
       </c>
     </row>
     <row r="6">
@@ -4365,28 +4365,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>485.7533518524229</v>
+        <v>520.9592369045539</v>
       </c>
       <c r="AB6" t="n">
-        <v>664.6291659299213</v>
+        <v>712.799411032278</v>
       </c>
       <c r="AC6" t="n">
-        <v>601.197891146462</v>
+        <v>644.7708356636134</v>
       </c>
       <c r="AD6" t="n">
-        <v>485753.3518524229</v>
+        <v>520959.236904554</v>
       </c>
       <c r="AE6" t="n">
-        <v>664629.1659299213</v>
+        <v>712799.4110322781</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.507459357887226e-06</v>
+        <v>4.779604518350215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.269791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>601197.8911464619</v>
+        <v>644770.8356636134</v>
       </c>
     </row>
     <row r="7">
@@ -4471,28 +4471,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>487.4680116836664</v>
+        <v>522.6738967357975</v>
       </c>
       <c r="AB7" t="n">
-        <v>666.9752391564817</v>
+        <v>715.1454842588385</v>
       </c>
       <c r="AC7" t="n">
-        <v>603.3200584370138</v>
+        <v>646.8930029541652</v>
       </c>
       <c r="AD7" t="n">
-        <v>487468.0116836664</v>
+        <v>522673.8967357975</v>
       </c>
       <c r="AE7" t="n">
-        <v>666975.2391564817</v>
+        <v>715145.4842588385</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.506855696290384e-06</v>
+        <v>4.778453846182089e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.270833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>603320.0584370138</v>
+        <v>646893.0029541652</v>
       </c>
     </row>
   </sheetData>
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.7007428904892</v>
+        <v>581.5545128552527</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.4423663391249</v>
+        <v>795.7085408629287</v>
       </c>
       <c r="AC2" t="n">
-        <v>667.9664633060886</v>
+        <v>719.7672345069213</v>
       </c>
       <c r="AD2" t="n">
-        <v>539700.7428904892</v>
+        <v>581554.5128552527</v>
       </c>
       <c r="AE2" t="n">
-        <v>738442.3663391249</v>
+        <v>795708.5408629286</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.225232321243678e-06</v>
+        <v>4.739162494421133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.882291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>667966.4633060886</v>
+        <v>719767.2345069214</v>
       </c>
     </row>
     <row r="3">
@@ -4874,28 +4874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.5331640890682</v>
+        <v>442.3015931992601</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.0271453827582</v>
+        <v>605.1765527843642</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.7242037883562</v>
+        <v>547.4193519572501</v>
       </c>
       <c r="AD3" t="n">
-        <v>400533.1640890682</v>
+        <v>442301.5931992601</v>
       </c>
       <c r="AE3" t="n">
-        <v>548027.1453827582</v>
+        <v>605176.5527843642</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.576177088723004e-06</v>
+        <v>5.486583005876684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.809375</v>
       </c>
       <c r="AH3" t="n">
-        <v>495724.2037883563</v>
+        <v>547419.3519572502</v>
       </c>
     </row>
   </sheetData>
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>844.3196555243594</v>
+        <v>888.2069292177121</v>
       </c>
       <c r="AB2" t="n">
-        <v>1155.235401442746</v>
+        <v>1215.283905479858</v>
       </c>
       <c r="AC2" t="n">
-        <v>1044.981356112119</v>
+        <v>1099.298915202534</v>
       </c>
       <c r="AD2" t="n">
-        <v>844319.6555243594</v>
+        <v>888206.929217712</v>
       </c>
       <c r="AE2" t="n">
-        <v>1155235.401442746</v>
+        <v>1215283.905479858</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.823197604697082e-06</v>
+        <v>3.701721474673566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.204166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1044981.356112119</v>
+        <v>1099298.915202534</v>
       </c>
     </row>
     <row r="3">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.5678179156774</v>
+        <v>510.3696612459072</v>
       </c>
       <c r="AB3" t="n">
-        <v>638.3786719916454</v>
+        <v>698.3102864370113</v>
       </c>
       <c r="AC3" t="n">
-        <v>577.4527075068554</v>
+        <v>631.6645327841048</v>
       </c>
       <c r="AD3" t="n">
-        <v>466567.8179156774</v>
+        <v>510369.6612459072</v>
       </c>
       <c r="AE3" t="n">
-        <v>638378.6719916455</v>
+        <v>698310.2864370113</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.475985153891442e-06</v>
+        <v>5.0271058888626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.777083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>577452.7075068554</v>
+        <v>631664.5327841048</v>
       </c>
     </row>
     <row r="4">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>428.55256372838</v>
+        <v>461.5532927215527</v>
       </c>
       <c r="AB4" t="n">
-        <v>586.3645240979351</v>
+        <v>631.5175773958056</v>
       </c>
       <c r="AC4" t="n">
-        <v>530.4027168858057</v>
+        <v>571.2464261496358</v>
       </c>
       <c r="AD4" t="n">
-        <v>428552.56372838</v>
+        <v>461553.2927215527</v>
       </c>
       <c r="AE4" t="n">
-        <v>586364.5240979352</v>
+        <v>631517.5773958056</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.575707634876464e-06</v>
+        <v>5.22957700248131e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>530402.7168858057</v>
+        <v>571246.4261496358</v>
       </c>
     </row>
     <row r="5">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>431.0414054247523</v>
+        <v>464.0421344179251</v>
       </c>
       <c r="AB5" t="n">
-        <v>589.7698671068582</v>
+        <v>634.9229204047285</v>
       </c>
       <c r="AC5" t="n">
-        <v>533.4830587373862</v>
+        <v>574.3267680012161</v>
       </c>
       <c r="AD5" t="n">
-        <v>431041.4054247523</v>
+        <v>464042.1344179251</v>
       </c>
       <c r="AE5" t="n">
-        <v>589769.8671068582</v>
+        <v>634922.9204047285</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.575707634876464e-06</v>
+        <v>5.22957700248131e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>533483.0587373861</v>
+        <v>574326.7680012161</v>
       </c>
     </row>
   </sheetData>
@@ -5786,28 +5786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.9576966121369</v>
+        <v>427.0972510116684</v>
       </c>
       <c r="AB2" t="n">
-        <v>543.1350330423285</v>
+        <v>584.3733010350646</v>
       </c>
       <c r="AC2" t="n">
-        <v>491.2989877835744</v>
+        <v>528.6015333573564</v>
       </c>
       <c r="AD2" t="n">
-        <v>396957.696612137</v>
+        <v>427097.2510116685</v>
       </c>
       <c r="AE2" t="n">
-        <v>543135.0330423284</v>
+        <v>584373.3010350646</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511173347142927e-06</v>
+        <v>5.591892551561227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>491298.9877835744</v>
+        <v>528601.5333573564</v>
       </c>
     </row>
     <row r="3">
@@ -5892,28 +5892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.6493533832539</v>
+        <v>424.7889077827854</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.9766559996546</v>
+        <v>581.2149239923907</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.4420418130433</v>
+        <v>525.7445873868254</v>
       </c>
       <c r="AD3" t="n">
-        <v>394649.3533832539</v>
+        <v>424788.9077827854</v>
       </c>
       <c r="AE3" t="n">
-        <v>539976.6559996546</v>
+        <v>581214.9239923907</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.529362651231439e-06</v>
+        <v>5.632396578957965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>488442.0418130433</v>
+        <v>525744.5873868254</v>
       </c>
     </row>
   </sheetData>
@@ -6189,28 +6189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1980.381532573105</v>
+        <v>2063.351552665656</v>
       </c>
       <c r="AB2" t="n">
-        <v>2709.645381133597</v>
+        <v>2823.168623003174</v>
       </c>
       <c r="AC2" t="n">
-        <v>2451.040628969383</v>
+        <v>2553.729371965799</v>
       </c>
       <c r="AD2" t="n">
-        <v>1980381.532573105</v>
+        <v>2063351.552665656</v>
       </c>
       <c r="AE2" t="n">
-        <v>2709645.381133597</v>
+        <v>2823168.623003174</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.169407583663933e-06</v>
+        <v>2.211073373003776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.321875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2451040.628969383</v>
+        <v>2553729.371965799</v>
       </c>
     </row>
     <row r="3">
@@ -6295,28 +6295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>803.1954168004545</v>
+        <v>862.4108867292706</v>
       </c>
       <c r="AB3" t="n">
-        <v>1098.967403747332</v>
+        <v>1179.988622106097</v>
       </c>
       <c r="AC3" t="n">
-        <v>994.0834971441238</v>
+        <v>1067.372164136723</v>
       </c>
       <c r="AD3" t="n">
-        <v>803195.4168004545</v>
+        <v>862410.8867292706</v>
       </c>
       <c r="AE3" t="n">
-        <v>1098967.403747332</v>
+        <v>1179988.622106097</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.957886517169018e-06</v>
+        <v>3.701900693949664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.957291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>994083.4971441239</v>
+        <v>1067372.164136723</v>
       </c>
     </row>
     <row r="4">
@@ -6401,28 +6401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>624.5509030046127</v>
+        <v>671.9744834604085</v>
       </c>
       <c r="AB4" t="n">
-        <v>854.5380987321422</v>
+        <v>919.4251336924731</v>
       </c>
       <c r="AC4" t="n">
-        <v>772.9821819409002</v>
+        <v>831.6764893541423</v>
       </c>
       <c r="AD4" t="n">
-        <v>624550.9030046127</v>
+        <v>671974.4834604085</v>
       </c>
       <c r="AE4" t="n">
-        <v>854538.0987321422</v>
+        <v>919425.1336924731</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.244592533012957e-06</v>
+        <v>4.243994012282985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.940625</v>
       </c>
       <c r="AH4" t="n">
-        <v>772982.1819409002</v>
+        <v>831676.4893541423</v>
       </c>
     </row>
     <row r="5">
@@ -6507,28 +6507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>546.1732031381996</v>
+        <v>581.7196427749547</v>
       </c>
       <c r="AB5" t="n">
-        <v>747.2982719948357</v>
+        <v>795.9344789040829</v>
       </c>
       <c r="AC5" t="n">
-        <v>675.9771737553599</v>
+        <v>719.9716093385337</v>
       </c>
       <c r="AD5" t="n">
-        <v>546173.2031381996</v>
+        <v>581719.6427749547</v>
       </c>
       <c r="AE5" t="n">
-        <v>747298.2719948357</v>
+        <v>795934.4789040829</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.39759214397193e-06</v>
+        <v>4.533280117997638e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.497916666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>675977.17375536</v>
+        <v>719971.6093385336</v>
       </c>
     </row>
     <row r="6">
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.3743782730542</v>
+        <v>535.9208179098091</v>
       </c>
       <c r="AB6" t="n">
-        <v>684.6342993127904</v>
+        <v>733.2705062220374</v>
       </c>
       <c r="AC6" t="n">
-        <v>619.2937626766511</v>
+        <v>663.2881982598246</v>
       </c>
       <c r="AD6" t="n">
-        <v>500374.3782730541</v>
+        <v>535920.8179098091</v>
       </c>
       <c r="AE6" t="n">
-        <v>684634.2993127904</v>
+        <v>733270.5062220374</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.483439433014403e-06</v>
+        <v>4.695597053168909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.272916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>619293.7626766511</v>
+        <v>663288.1982598247</v>
       </c>
     </row>
     <row r="7">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>497.1189353648302</v>
+        <v>532.6653750015852</v>
       </c>
       <c r="AB7" t="n">
-        <v>680.1800587057536</v>
+        <v>728.8162656150006</v>
       </c>
       <c r="AC7" t="n">
-        <v>615.2646285415838</v>
+        <v>659.2590641247574</v>
       </c>
       <c r="AD7" t="n">
-        <v>497118.9353648302</v>
+        <v>532665.3750015852</v>
       </c>
       <c r="AE7" t="n">
-        <v>680180.0587057536</v>
+        <v>728816.2656150006</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.492861696445894e-06</v>
+        <v>4.713412326541366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.248958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>615264.6285415838</v>
+        <v>659259.0641247574</v>
       </c>
     </row>
   </sheetData>
@@ -7016,28 +7016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.9590322586072</v>
+        <v>424.1573881978023</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.717931130117</v>
+        <v>580.3508510355392</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.4487110363171</v>
+        <v>524.9629803402416</v>
       </c>
       <c r="AD2" t="n">
-        <v>384959.0322586072</v>
+        <v>424157.3881978024</v>
       </c>
       <c r="AE2" t="n">
-        <v>526717.931130117</v>
+        <v>580350.8510355392</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.466613869856762e-06</v>
+        <v>5.654876938643871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.558333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>476448.7110363172</v>
+        <v>524962.9803402417</v>
       </c>
     </row>
     <row r="3">
@@ -7122,28 +7122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.0848274191604</v>
+        <v>428.2831833583555</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.3630260860223</v>
+        <v>585.9959459914444</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.5550460525714</v>
+        <v>530.069315356496</v>
       </c>
       <c r="AD3" t="n">
-        <v>389084.8274191604</v>
+        <v>428283.1833583555</v>
       </c>
       <c r="AE3" t="n">
-        <v>532363.0260860223</v>
+        <v>585995.9459914444</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466613869856762e-06</v>
+        <v>5.654876938643871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.559374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>481555.0460525713</v>
+        <v>530069.3153564959</v>
       </c>
     </row>
   </sheetData>
@@ -7419,28 +7419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1219.305869386451</v>
+        <v>1287.592272531821</v>
       </c>
       <c r="AB2" t="n">
-        <v>1668.308082473053</v>
+        <v>1761.740551840038</v>
       </c>
       <c r="AC2" t="n">
-        <v>1509.087100566924</v>
+        <v>1593.602506190818</v>
       </c>
       <c r="AD2" t="n">
-        <v>1219305.869386451</v>
+        <v>1287592.272531821</v>
       </c>
       <c r="AE2" t="n">
-        <v>1668308.082473053</v>
+        <v>1761740.551840038</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.510892692756382e-06</v>
+        <v>2.96132879736494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1509087.100566924</v>
+        <v>1593602.506190818</v>
       </c>
     </row>
     <row r="3">
@@ -7525,28 +7525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.797880319372</v>
+        <v>659.2084507854075</v>
       </c>
       <c r="AB3" t="n">
-        <v>839.8253387043158</v>
+        <v>901.9580845889237</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.6735870806409</v>
+        <v>815.8764709018785</v>
       </c>
       <c r="AD3" t="n">
-        <v>613797.8803193719</v>
+        <v>659208.4507854076</v>
       </c>
       <c r="AE3" t="n">
-        <v>839825.3387043157</v>
+        <v>901958.0845889237</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226300460521341e-06</v>
+        <v>4.363518135295997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.275000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>759673.587080641</v>
+        <v>815876.4709018786</v>
       </c>
     </row>
     <row r="4">
@@ -7631,28 +7631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.782488180641</v>
+        <v>518.0537010351835</v>
       </c>
       <c r="AB4" t="n">
-        <v>661.9325433058206</v>
+        <v>708.8239286726097</v>
       </c>
       <c r="AC4" t="n">
-        <v>598.7586304008718</v>
+        <v>641.174767760727</v>
       </c>
       <c r="AD4" t="n">
-        <v>483782.488180641</v>
+        <v>518053.7010351835</v>
       </c>
       <c r="AE4" t="n">
-        <v>661932.5433058206</v>
+        <v>708823.9286726096</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485812645785353e-06</v>
+        <v>4.872158431972141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>598758.6304008717</v>
+        <v>641174.7677607271</v>
       </c>
     </row>
     <row r="5">
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>457.4029218159725</v>
+        <v>491.5035424699228</v>
       </c>
       <c r="AB5" t="n">
-        <v>625.8388568213489</v>
+        <v>672.496830413291</v>
       </c>
       <c r="AC5" t="n">
-        <v>566.1096746966709</v>
+        <v>608.3146767738752</v>
       </c>
       <c r="AD5" t="n">
-        <v>457402.9218159725</v>
+        <v>491503.5424699228</v>
       </c>
       <c r="AE5" t="n">
-        <v>625838.8568213489</v>
+        <v>672496.830413291</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.547075558304239e-06</v>
+        <v>4.992232893859738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>566109.674696671</v>
+        <v>608314.6767738753</v>
       </c>
     </row>
     <row r="6">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>459.7398828783731</v>
+        <v>493.8405035323236</v>
       </c>
       <c r="AB6" t="n">
-        <v>629.0363900463711</v>
+        <v>675.6943636383132</v>
       </c>
       <c r="AC6" t="n">
-        <v>569.0020398384631</v>
+        <v>611.2070419156674</v>
       </c>
       <c r="AD6" t="n">
-        <v>459739.8828783731</v>
+        <v>493840.5035323236</v>
       </c>
       <c r="AE6" t="n">
-        <v>629036.3900463711</v>
+        <v>675694.3636383133</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.547231047929921e-06</v>
+        <v>4.99253765137722e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.358333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>569002.0398384632</v>
+        <v>611207.0419156675</v>
       </c>
     </row>
   </sheetData>
@@ -8140,28 +8140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1546.869455727702</v>
+        <v>1628.219914880591</v>
       </c>
       <c r="AB2" t="n">
-        <v>2116.495032390675</v>
+        <v>2227.802319532622</v>
       </c>
       <c r="AC2" t="n">
-        <v>1914.499717018743</v>
+        <v>2015.183992896621</v>
       </c>
       <c r="AD2" t="n">
-        <v>1546869.455727702</v>
+        <v>1628219.914880591</v>
       </c>
       <c r="AE2" t="n">
-        <v>2116495.032390675</v>
+        <v>2227802.319532622</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332443086557004e-06</v>
+        <v>2.561892428097229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.91041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1914499.717018743</v>
+        <v>2015183.992896621</v>
       </c>
     </row>
     <row r="3">
@@ -8246,28 +8246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.4937905157014</v>
+        <v>753.0772995797198</v>
       </c>
       <c r="AB3" t="n">
-        <v>966.6559724898722</v>
+        <v>1030.393584710639</v>
       </c>
       <c r="AC3" t="n">
-        <v>874.3996831856164</v>
+        <v>932.0542671523338</v>
       </c>
       <c r="AD3" t="n">
-        <v>706493.7905157014</v>
+        <v>753077.2995797198</v>
       </c>
       <c r="AE3" t="n">
-        <v>966655.9724898721</v>
+        <v>1030393.584710639</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085046430667638e-06</v>
+        <v>4.008925196768657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.611458333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>874399.6831856164</v>
+        <v>932054.2671523337</v>
       </c>
     </row>
     <row r="4">
@@ -8352,28 +8352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>554.1012491819436</v>
+        <v>600.5994173913901</v>
       </c>
       <c r="AB4" t="n">
-        <v>758.1457743525929</v>
+        <v>821.7666194511618</v>
       </c>
       <c r="AC4" t="n">
-        <v>685.7894057126579</v>
+        <v>743.3383666474363</v>
       </c>
       <c r="AD4" t="n">
-        <v>554101.2491819436</v>
+        <v>600599.4173913902</v>
       </c>
       <c r="AE4" t="n">
-        <v>758145.7743525929</v>
+        <v>821766.6194511618</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360950207223176e-06</v>
+        <v>4.53940623807715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.721875</v>
       </c>
       <c r="AH4" t="n">
-        <v>685789.4057126578</v>
+        <v>743338.3666474363</v>
       </c>
     </row>
     <row r="5">
@@ -8458,28 +8458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>485.6117367105924</v>
+        <v>520.4641171625856</v>
       </c>
       <c r="AB5" t="n">
-        <v>664.4354018452498</v>
+        <v>712.1219663581755</v>
       </c>
       <c r="AC5" t="n">
-        <v>601.0226196340818</v>
+        <v>644.1580453584075</v>
       </c>
       <c r="AD5" t="n">
-        <v>485611.7367105924</v>
+        <v>520464.1171625855</v>
       </c>
       <c r="AE5" t="n">
-        <v>664435.4018452498</v>
+        <v>712121.9663581755</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.500806456189484e-06</v>
+        <v>4.808308278895039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.345833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>601022.6196340818</v>
+        <v>644158.0453584075</v>
       </c>
     </row>
     <row r="6">
@@ -8564,28 +8564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>477.9568551759018</v>
+        <v>512.809235627895</v>
       </c>
       <c r="AB6" t="n">
-        <v>653.9616552199471</v>
+        <v>701.6482197328729</v>
       </c>
       <c r="AC6" t="n">
-        <v>591.5484726867024</v>
+        <v>634.6838984110281</v>
       </c>
       <c r="AD6" t="n">
-        <v>477956.8551759018</v>
+        <v>512809.235627895</v>
       </c>
       <c r="AE6" t="n">
-        <v>653961.6552199471</v>
+        <v>701648.2197328729</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.518783621089293e-06</v>
+        <v>4.842873029239822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AH6" t="n">
-        <v>591548.4726867024</v>
+        <v>634683.8984110281</v>
       </c>
     </row>
     <row r="7">
@@ -8670,28 +8670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>480.09214432775</v>
+        <v>514.9445247797431</v>
       </c>
       <c r="AB7" t="n">
-        <v>656.8832520398147</v>
+        <v>704.5698165527403</v>
       </c>
       <c r="AC7" t="n">
-        <v>594.1912364065687</v>
+        <v>637.3266621308944</v>
       </c>
       <c r="AD7" t="n">
-        <v>480092.14432775</v>
+        <v>514944.5247797432</v>
       </c>
       <c r="AE7" t="n">
-        <v>656883.2520398147</v>
+        <v>704569.8165527404</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.518935969944376e-06</v>
+        <v>4.843165950852914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>594191.2364065687</v>
+        <v>637326.6621308944</v>
       </c>
     </row>
   </sheetData>
@@ -8967,28 +8967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2548.426826662259</v>
+        <v>2633.076904246397</v>
       </c>
       <c r="AB2" t="n">
-        <v>3486.870012896278</v>
+        <v>3602.691983544757</v>
       </c>
       <c r="AC2" t="n">
-        <v>3154.088032718126</v>
+        <v>3258.856117045066</v>
       </c>
       <c r="AD2" t="n">
-        <v>2548426.826662259</v>
+        <v>2633076.904246397</v>
       </c>
       <c r="AE2" t="n">
-        <v>3486870.012896278</v>
+        <v>3602691.983544758</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.020237290726227e-06</v>
+        <v>1.900624691272588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.01458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3154088.032718126</v>
+        <v>3258856.117045066</v>
       </c>
     </row>
     <row r="3">
@@ -9073,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>921.28067487029</v>
+        <v>969.5668452817475</v>
       </c>
       <c r="AB3" t="n">
-        <v>1260.536863392394</v>
+        <v>1326.604131984845</v>
       </c>
       <c r="AC3" t="n">
-        <v>1140.232994324823</v>
+        <v>1199.994895528804</v>
       </c>
       <c r="AD3" t="n">
-        <v>921280.67487029</v>
+        <v>969566.8452817475</v>
       </c>
       <c r="AE3" t="n">
-        <v>1260536.863392395</v>
+        <v>1326604.131984845</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.837985860015439e-06</v>
+        <v>3.424028252553484e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.334375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1140232.994324823</v>
+        <v>1199994.895528804</v>
       </c>
     </row>
     <row r="4">
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>708.3223347129524</v>
+        <v>744.6009905396121</v>
       </c>
       <c r="AB4" t="n">
-        <v>969.1578673302278</v>
+        <v>1018.795924733601</v>
       </c>
       <c r="AC4" t="n">
-        <v>876.6628006938399</v>
+        <v>921.5634715660862</v>
       </c>
       <c r="AD4" t="n">
-        <v>708322.3347129524</v>
+        <v>744600.9905396121</v>
       </c>
       <c r="AE4" t="n">
-        <v>969157.8673302277</v>
+        <v>1018795.924733601</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.139292606728907e-06</v>
+        <v>3.985339868641339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.160416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>876662.8006938399</v>
+        <v>921563.4715660862</v>
       </c>
     </row>
     <row r="5">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.1925103983941</v>
+        <v>655.4785913013005</v>
       </c>
       <c r="AB5" t="n">
-        <v>830.7875801700795</v>
+        <v>896.8547262929815</v>
       </c>
       <c r="AC5" t="n">
-        <v>751.4983795363383</v>
+        <v>811.2601699590925</v>
       </c>
       <c r="AD5" t="n">
-        <v>607192.5103983941</v>
+        <v>655478.5913013006</v>
       </c>
       <c r="AE5" t="n">
-        <v>830787.5801700795</v>
+        <v>896854.7262929814</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.302077657295919e-06</v>
+        <v>4.288596071183678e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.654166666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>751498.3795363384</v>
+        <v>811260.1699590925</v>
       </c>
     </row>
     <row r="6">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>552.5584324613294</v>
+        <v>588.7517474334174</v>
       </c>
       <c r="AB6" t="n">
-        <v>756.0348244511786</v>
+        <v>805.5561147323539</v>
       </c>
       <c r="AC6" t="n">
-        <v>683.8799219070978</v>
+        <v>728.6749697474053</v>
       </c>
       <c r="AD6" t="n">
-        <v>552558.4324613294</v>
+        <v>588751.7474334175</v>
       </c>
       <c r="AE6" t="n">
-        <v>756034.8244511785</v>
+        <v>805556.1147323538</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.402219138268038e-06</v>
+        <v>4.475152054861486e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.376041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>683879.9219070978</v>
+        <v>728674.9697474053</v>
       </c>
     </row>
     <row r="7">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>519.5119824308916</v>
+        <v>555.7052974029796</v>
       </c>
       <c r="AB7" t="n">
-        <v>710.8192136130521</v>
+        <v>760.3405038942275</v>
       </c>
       <c r="AC7" t="n">
-        <v>642.9796255068538</v>
+        <v>687.7746733471613</v>
       </c>
       <c r="AD7" t="n">
-        <v>519511.9824308916</v>
+        <v>555705.2974029796</v>
       </c>
       <c r="AE7" t="n">
-        <v>710819.213613052</v>
+        <v>760340.5038942274</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.457363125587487e-06</v>
+        <v>4.577881120763363e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.233333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>642979.6255068538</v>
+        <v>687774.6733471613</v>
       </c>
     </row>
     <row r="8">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>517.4229485304243</v>
+        <v>553.6162635025123</v>
       </c>
       <c r="AB8" t="n">
-        <v>707.9609052687613</v>
+        <v>757.4821955499366</v>
       </c>
       <c r="AC8" t="n">
-        <v>640.3941100992813</v>
+        <v>685.1891579395885</v>
       </c>
       <c r="AD8" t="n">
-        <v>517422.9485304243</v>
+        <v>553616.2635025124</v>
       </c>
       <c r="AE8" t="n">
-        <v>707960.9052687613</v>
+        <v>757482.1955499366</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.464421555964376e-06</v>
+        <v>4.591030441198803e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.215625</v>
       </c>
       <c r="AH8" t="n">
-        <v>640394.1100992813</v>
+        <v>685189.1579395885</v>
       </c>
     </row>
     <row r="9">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>519.6206438333166</v>
+        <v>555.8139588054048</v>
       </c>
       <c r="AB9" t="n">
-        <v>710.9678889376528</v>
+        <v>760.4891792188282</v>
       </c>
       <c r="AC9" t="n">
-        <v>643.1141114671418</v>
+        <v>687.9091593074492</v>
       </c>
       <c r="AD9" t="n">
-        <v>519620.6438333166</v>
+        <v>555813.9588054048</v>
       </c>
       <c r="AE9" t="n">
-        <v>710967.8889376528</v>
+        <v>760489.1792188282</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.464421555964376e-06</v>
+        <v>4.591030441198803e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.215625</v>
       </c>
       <c r="AH9" t="n">
-        <v>643114.1114671418</v>
+        <v>687909.1593074491</v>
       </c>
     </row>
   </sheetData>
@@ -10006,28 +10006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.2569751578004</v>
+        <v>1008.859392603346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.288248140573</v>
+        <v>1380.365928695102</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.80880831809</v>
+        <v>1248.625741816189</v>
       </c>
       <c r="AD2" t="n">
-        <v>953256.9751578004</v>
+        <v>1008859.392603346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304288.248140573</v>
+        <v>1380365.928695102</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.712723007157466e-06</v>
+        <v>3.433148737633745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.676041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179808.80831809</v>
+        <v>1248625.741816189</v>
       </c>
     </row>
     <row r="3">
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.1511312877818</v>
+        <v>556.5477243896464</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.7477723412158</v>
+        <v>761.4931496626406</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.8693884546449</v>
+        <v>688.8173122211854</v>
       </c>
       <c r="AD3" t="n">
-        <v>512151.1312877819</v>
+        <v>556547.7243896464</v>
       </c>
       <c r="AE3" t="n">
-        <v>700747.7723412158</v>
+        <v>761493.1496626405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.386294362563811e-06</v>
+        <v>4.783320737925522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.944791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>633869.3884546448</v>
+        <v>688817.3122211854</v>
       </c>
     </row>
     <row r="4">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.0176494156636</v>
+        <v>470.2938485369701</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.9468277884998</v>
+        <v>643.4767914685674</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.8796217680083</v>
+        <v>582.0642696161558</v>
       </c>
       <c r="AD4" t="n">
-        <v>437017.6494156636</v>
+        <v>470293.8485369702</v>
       </c>
       <c r="AE4" t="n">
-        <v>597946.8277884999</v>
+        <v>643476.7914685674</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.568448165572849e-06</v>
+        <v>5.148447554253837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.452083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>540879.6217680083</v>
+        <v>582064.2696161558</v>
       </c>
     </row>
     <row r="5">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>439.342682204211</v>
+        <v>472.6188813255175</v>
       </c>
       <c r="AB5" t="n">
-        <v>601.1280402229978</v>
+        <v>646.6580039030655</v>
       </c>
       <c r="AC5" t="n">
-        <v>543.7572237526175</v>
+        <v>584.9418716007648</v>
       </c>
       <c r="AD5" t="n">
-        <v>439342.682204211</v>
+        <v>472618.8813255175</v>
       </c>
       <c r="AE5" t="n">
-        <v>601128.0402229978</v>
+        <v>646658.0039030655</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.567970906700336e-06</v>
+        <v>5.147490890106252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>543757.2237526175</v>
+        <v>584941.8716007648</v>
       </c>
     </row>
   </sheetData>
@@ -10621,28 +10621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>638.1362530742217</v>
+        <v>680.6319977556892</v>
       </c>
       <c r="AB2" t="n">
-        <v>873.1261740407266</v>
+        <v>931.2707266938507</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.796237430561</v>
+        <v>842.3915555848628</v>
       </c>
       <c r="AD2" t="n">
-        <v>638136.2530742217</v>
+        <v>680631.9977556892</v>
       </c>
       <c r="AE2" t="n">
-        <v>873126.1740407266</v>
+        <v>931270.7266938507</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.078068356789217e-06</v>
+        <v>4.347448960469328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>789796.237430561</v>
+        <v>842391.5555848628</v>
       </c>
     </row>
     <row r="3">
@@ -10727,28 +10727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>408.3923300847943</v>
+        <v>450.8879852577109</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.7804030200439</v>
+        <v>616.9248332036194</v>
       </c>
       <c r="AC3" t="n">
-        <v>505.4511856090314</v>
+        <v>558.0463929821068</v>
       </c>
       <c r="AD3" t="n">
-        <v>408392.3300847943</v>
+        <v>450887.9852577109</v>
       </c>
       <c r="AE3" t="n">
-        <v>558780.4030200439</v>
+        <v>616924.8332036195</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583333940509339e-06</v>
+        <v>5.404496159868928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.682291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>505451.1856090314</v>
+        <v>558046.3929821068</v>
       </c>
     </row>
     <row r="4">
@@ -10833,28 +10833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.1453599820463</v>
+        <v>453.6410151549629</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.5472199805714</v>
+        <v>620.6916501641471</v>
       </c>
       <c r="AC4" t="n">
-        <v>508.858502845607</v>
+        <v>561.4537102186824</v>
       </c>
       <c r="AD4" t="n">
-        <v>411145.3599820463</v>
+        <v>453641.015154963</v>
       </c>
       <c r="AE4" t="n">
-        <v>562547.2199805714</v>
+        <v>620691.650164147</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.582339649429535e-06</v>
+        <v>5.402416040749086e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.684375</v>
       </c>
       <c r="AH4" t="n">
-        <v>508858.502845607</v>
+        <v>561453.7102186824</v>
       </c>
     </row>
   </sheetData>
@@ -19135,28 +19135,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.8648072516412</v>
+        <v>495.7557558626249</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.3660965007191</v>
+        <v>678.3148963716011</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.9683497469922</v>
+        <v>613.5774746828311</v>
       </c>
       <c r="AD2" t="n">
-        <v>454864.8072516412</v>
+        <v>495755.7558626249</v>
       </c>
       <c r="AE2" t="n">
-        <v>622366.0965007191</v>
+        <v>678314.8963716011</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.394117695306e-06</v>
+        <v>5.204466565657269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.458333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>562968.3497469922</v>
+        <v>613577.4746828311</v>
       </c>
     </row>
     <row r="3">
@@ -19241,28 +19241,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.2980029862794</v>
+        <v>433.2742029432837</v>
       </c>
       <c r="AB3" t="n">
-        <v>536.7594346522559</v>
+        <v>592.8248791757873</v>
       </c>
       <c r="AC3" t="n">
-        <v>485.5318675556417</v>
+        <v>536.2465047421928</v>
       </c>
       <c r="AD3" t="n">
-        <v>392298.0029862794</v>
+        <v>433274.2029432837</v>
       </c>
       <c r="AE3" t="n">
-        <v>536759.4346522558</v>
+        <v>592824.8791757872</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.559713978684605e-06</v>
+        <v>5.564449001746696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.976041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>485531.8675556417</v>
+        <v>536246.5047421928</v>
       </c>
     </row>
   </sheetData>
@@ -19538,28 +19538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.473088383772</v>
+        <v>430.4373464019138</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.9989942173278</v>
+        <v>588.9433669026072</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.7485638920473</v>
+        <v>532.7354385526285</v>
       </c>
       <c r="AD2" t="n">
-        <v>392473.088383772</v>
+        <v>430437.3464019138</v>
       </c>
       <c r="AE2" t="n">
-        <v>536998.9942173278</v>
+        <v>588943.3669026071</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.341285758130409e-06</v>
+        <v>5.568811305025722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.185416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>485748.5638920473</v>
+        <v>532735.4385526285</v>
       </c>
     </row>
   </sheetData>
@@ -19835,28 +19835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1377.931013247789</v>
+        <v>1446.899958854118</v>
       </c>
       <c r="AB2" t="n">
-        <v>1885.346002351585</v>
+        <v>1979.712356425302</v>
       </c>
       <c r="AC2" t="n">
-        <v>1705.411225986882</v>
+        <v>1790.771387671813</v>
       </c>
       <c r="AD2" t="n">
-        <v>1377931.013247789</v>
+        <v>1446899.958854118</v>
       </c>
       <c r="AE2" t="n">
-        <v>1885346.002351585</v>
+        <v>1979712.356425302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420217652944734e-06</v>
+        <v>2.756043409442112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1705411.225986882</v>
+        <v>1790771.387671814</v>
       </c>
     </row>
     <row r="3">
@@ -19941,28 +19941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.0375069457725</v>
+        <v>705.9599399497947</v>
       </c>
       <c r="AB3" t="n">
-        <v>903.0924358029115</v>
+        <v>965.9255345937738</v>
       </c>
       <c r="AC3" t="n">
-        <v>816.9025612280753</v>
+        <v>873.7389572571457</v>
       </c>
       <c r="AD3" t="n">
-        <v>660037.5069457726</v>
+        <v>705959.9399497947</v>
       </c>
       <c r="AE3" t="n">
-        <v>903092.4358029115</v>
+        <v>965925.5345937738</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.153560809384019e-06</v>
+        <v>4.179153148272134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.442708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>816902.5612280753</v>
+        <v>873738.9572571457</v>
       </c>
     </row>
     <row r="4">
@@ -20047,28 +20047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.1258387303538</v>
+        <v>565.1335230803963</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.2908747665184</v>
+        <v>773.2406182100301</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.5017105783052</v>
+        <v>699.4436188580878</v>
       </c>
       <c r="AD4" t="n">
-        <v>519125.8387303538</v>
+        <v>565133.5230803963</v>
       </c>
       <c r="AE4" t="n">
-        <v>710290.8747665184</v>
+        <v>773240.6182100301</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.421755757280301e-06</v>
+        <v>4.699606416165698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.618749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>642501.7105783052</v>
+        <v>699443.6188580878</v>
       </c>
     </row>
     <row r="5">
@@ -20153,28 +20153,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>468.3418127822717</v>
+        <v>502.8263303397118</v>
       </c>
       <c r="AB5" t="n">
-        <v>640.8059300312495</v>
+        <v>687.9891683028824</v>
       </c>
       <c r="AC5" t="n">
-        <v>579.6483114458379</v>
+        <v>622.3284476789167</v>
       </c>
       <c r="AD5" t="n">
-        <v>468341.8127822717</v>
+        <v>502826.3303397119</v>
       </c>
       <c r="AE5" t="n">
-        <v>640805.9300312495</v>
+        <v>687989.1683028823</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.527310395408154e-06</v>
+        <v>4.904443445296499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.341666666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>579648.3114458378</v>
+        <v>622328.4476789167</v>
       </c>
     </row>
     <row r="6">
@@ -20259,28 +20259,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>468.6565862323074</v>
+        <v>503.1411037897476</v>
       </c>
       <c r="AB6" t="n">
-        <v>641.2366169524129</v>
+        <v>688.4198552240457</v>
       </c>
       <c r="AC6" t="n">
-        <v>580.0378942117183</v>
+        <v>622.7180304447971</v>
       </c>
       <c r="AD6" t="n">
-        <v>468656.5862323074</v>
+        <v>503141.1037897476</v>
       </c>
       <c r="AE6" t="n">
-        <v>641236.6169524129</v>
+        <v>688419.8552240457</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.533465184803364e-06</v>
+        <v>4.916387295391589e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.326041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>580037.8942117182</v>
+        <v>622718.0304447971</v>
       </c>
     </row>
   </sheetData>
@@ -20556,28 +20556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2242.198473047301</v>
+        <v>2326.021036630152</v>
       </c>
       <c r="AB2" t="n">
-        <v>3067.874869638784</v>
+        <v>3182.564599123361</v>
       </c>
       <c r="AC2" t="n">
-        <v>2775.081197869766</v>
+        <v>2878.825100540377</v>
       </c>
       <c r="AD2" t="n">
-        <v>2242198.473047301</v>
+        <v>2326021.036630152</v>
       </c>
       <c r="AE2" t="n">
-        <v>3067874.869638784</v>
+        <v>3182564.599123362</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093815622861611e-06</v>
+        <v>2.052427134963528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2775081.197869766</v>
+        <v>2878825.100540377</v>
       </c>
     </row>
     <row r="3">
@@ -20662,28 +20662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>867.9430166181839</v>
+        <v>915.8050880886613</v>
       </c>
       <c r="AB3" t="n">
-        <v>1187.557926280454</v>
+        <v>1253.04492399193</v>
       </c>
       <c r="AC3" t="n">
-        <v>1074.219064544264</v>
+        <v>1133.456075105736</v>
       </c>
       <c r="AD3" t="n">
-        <v>867943.0166181839</v>
+        <v>915805.0880886612</v>
       </c>
       <c r="AE3" t="n">
-        <v>1187557.926280454</v>
+        <v>1253044.92399193</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.896273281927225e-06</v>
+        <v>3.558152450731809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.144791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1074219.064544264</v>
+        <v>1133456.075105736</v>
       </c>
     </row>
     <row r="4">
@@ -20768,28 +20768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>673.1837868786153</v>
+        <v>709.1443684995398</v>
       </c>
       <c r="AB4" t="n">
-        <v>921.0797559799651</v>
+        <v>970.2826102226078</v>
       </c>
       <c r="AC4" t="n">
-        <v>833.1731968127932</v>
+        <v>877.6801997031577</v>
       </c>
       <c r="AD4" t="n">
-        <v>673183.7868786153</v>
+        <v>709144.3684995398</v>
       </c>
       <c r="AE4" t="n">
-        <v>921079.7559799651</v>
+        <v>970282.6102226077</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.189410530998312e-06</v>
+        <v>4.108192906990843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.054166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>833173.1968127933</v>
+        <v>877680.1997031576</v>
       </c>
     </row>
     <row r="5">
@@ -20874,28 +20874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>577.1216412626919</v>
+        <v>613.1674742296368</v>
       </c>
       <c r="AB5" t="n">
-        <v>789.6432903854944</v>
+        <v>838.9627892807864</v>
       </c>
       <c r="AC5" t="n">
-        <v>714.2808430224209</v>
+        <v>758.8933581634976</v>
       </c>
       <c r="AD5" t="n">
-        <v>577121.6412626919</v>
+        <v>613167.4742296368</v>
       </c>
       <c r="AE5" t="n">
-        <v>789643.2903854945</v>
+        <v>838962.7892807864</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.34895311066472e-06</v>
+        <v>4.40755736371048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.574999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>714280.8430224209</v>
+        <v>758893.3581634976</v>
       </c>
     </row>
     <row r="6">
@@ -20980,28 +20980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>522.2971131458913</v>
+        <v>558.172353912244</v>
       </c>
       <c r="AB6" t="n">
-        <v>714.62995232861</v>
+        <v>763.7160394490546</v>
       </c>
       <c r="AC6" t="n">
-        <v>646.426672667804</v>
+        <v>690.8280525262296</v>
       </c>
       <c r="AD6" t="n">
-        <v>522297.1131458913</v>
+        <v>558172.3539122441</v>
       </c>
       <c r="AE6" t="n">
-        <v>714629.95232861</v>
+        <v>763716.0394490546</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.450668918890702e-06</v>
+        <v>4.598416115857014e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>646426.6726678041</v>
+        <v>690828.0525262296</v>
       </c>
     </row>
     <row r="7">
@@ -21086,28 +21086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>506.5869954689595</v>
+        <v>542.4622362353123</v>
       </c>
       <c r="AB7" t="n">
-        <v>693.134676241555</v>
+        <v>742.2207633620001</v>
       </c>
       <c r="AC7" t="n">
-        <v>626.9828755616884</v>
+        <v>671.384255420114</v>
       </c>
       <c r="AD7" t="n">
-        <v>506586.9954689595</v>
+        <v>542462.2362353123</v>
       </c>
       <c r="AE7" t="n">
-        <v>693134.676241555</v>
+        <v>742220.7633620001</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.478396114427522e-06</v>
+        <v>4.650443210101039e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.232291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>626982.8755616884</v>
+        <v>671384.2554201139</v>
       </c>
     </row>
     <row r="8">
@@ -21192,28 +21192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>508.4565382536335</v>
+        <v>544.3317790199862</v>
       </c>
       <c r="AB8" t="n">
-        <v>695.6926671579527</v>
+        <v>744.7787542783976</v>
       </c>
       <c r="AC8" t="n">
-        <v>629.2967354151879</v>
+        <v>673.6981152736132</v>
       </c>
       <c r="AD8" t="n">
-        <v>508456.5382536335</v>
+        <v>544331.7790199863</v>
       </c>
       <c r="AE8" t="n">
-        <v>695692.6671579527</v>
+        <v>744778.7542783977</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.478840935746294e-06</v>
+        <v>4.651277869366986e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.230208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>629296.7354151879</v>
+        <v>673698.1152736132</v>
       </c>
     </row>
   </sheetData>
@@ -21489,28 +21489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.9982928129741</v>
+        <v>451.6286654285489</v>
       </c>
       <c r="AB2" t="n">
-        <v>555.5047756072693</v>
+        <v>617.9382644898631</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.48817947916</v>
+        <v>558.963103808751</v>
       </c>
       <c r="AD2" t="n">
-        <v>405998.2928129741</v>
+        <v>451628.6654285489</v>
       </c>
       <c r="AE2" t="n">
-        <v>555504.7756072693</v>
+        <v>617938.2644898631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08889540080474e-06</v>
+        <v>5.22416887211899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>502488.17947916</v>
+        <v>558963.1038087511</v>
       </c>
     </row>
   </sheetData>
@@ -21786,28 +21786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>732.2328268780861</v>
+        <v>786.217220895229</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.87325756703</v>
+        <v>1075.737087084662</v>
       </c>
       <c r="AC2" t="n">
-        <v>906.2558800027804</v>
+        <v>973.0702492997858</v>
       </c>
       <c r="AD2" t="n">
-        <v>732232.8268780862</v>
+        <v>786217.220895229</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001873.25756703</v>
+        <v>1075737.087084662</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944410059675592e-06</v>
+        <v>4.004091471690448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.747916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>906255.8800027804</v>
+        <v>973070.2492997858</v>
       </c>
     </row>
     <row r="3">
@@ -21892,28 +21892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.6224405436187</v>
+        <v>469.7928875864188</v>
       </c>
       <c r="AB3" t="n">
-        <v>583.7236444055194</v>
+        <v>642.7913545951857</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.0138790447362</v>
+        <v>581.4442498759529</v>
       </c>
       <c r="AD3" t="n">
-        <v>426622.4405436187</v>
+        <v>469792.8875864188</v>
       </c>
       <c r="AE3" t="n">
-        <v>583723.6444055194</v>
+        <v>642791.3545951857</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.556947401898079e-06</v>
+        <v>5.265479488009493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.652083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>528013.8790447362</v>
+        <v>581444.2498759528</v>
       </c>
     </row>
     <row r="4">
@@ -21998,28 +21998,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.3585350167384</v>
+        <v>451.8857167943389</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.784848402747</v>
+        <v>618.2899735088428</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.0236277832806</v>
+        <v>559.2812462125861</v>
       </c>
       <c r="AD4" t="n">
-        <v>419358.5350167384</v>
+        <v>451885.7167943388</v>
       </c>
       <c r="AE4" t="n">
-        <v>573784.848402747</v>
+        <v>618289.9735088428</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.583565260277782e-06</v>
+        <v>5.320293203461374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.584375000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>519023.6277832806</v>
+        <v>559281.2462125861</v>
       </c>
     </row>
   </sheetData>
@@ -22295,28 +22295,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1086.913886745486</v>
+        <v>1143.135172043333</v>
       </c>
       <c r="AB2" t="n">
-        <v>1487.163531101628</v>
+        <v>1564.087973954198</v>
       </c>
       <c r="AC2" t="n">
-        <v>1345.230730940413</v>
+        <v>1414.813612931267</v>
       </c>
       <c r="AD2" t="n">
-        <v>1086913.886745486</v>
+        <v>1143135.172043333</v>
       </c>
       <c r="AE2" t="n">
-        <v>1487163.531101628</v>
+        <v>1564087.973954198</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607287168603566e-06</v>
+        <v>3.184331801509792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1345230.730940413</v>
+        <v>1414813.612931267</v>
       </c>
     </row>
     <row r="3">
@@ -22401,28 +22401,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.469378385099</v>
+        <v>603.2533898799707</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.1731267223602</v>
+        <v>825.3979016950404</v>
       </c>
       <c r="AC3" t="n">
-        <v>704.8099370843292</v>
+        <v>746.6230844104958</v>
       </c>
       <c r="AD3" t="n">
-        <v>569469.378385099</v>
+        <v>603253.3898799707</v>
       </c>
       <c r="AE3" t="n">
-        <v>779173.1267223601</v>
+        <v>825397.9016950404</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301739621281054e-06</v>
+        <v>4.560169967143045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.115625000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>704809.9370843292</v>
+        <v>746623.0844104958</v>
       </c>
     </row>
     <row r="4">
@@ -22507,28 +22507,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>452.9626470316326</v>
+        <v>486.6613176719327</v>
       </c>
       <c r="AB4" t="n">
-        <v>619.7634769703171</v>
+        <v>665.8714848207997</v>
       </c>
       <c r="AC4" t="n">
-        <v>560.6141205717722</v>
+        <v>602.3216448660002</v>
       </c>
       <c r="AD4" t="n">
-        <v>452962.6470316325</v>
+        <v>486661.3176719327</v>
       </c>
       <c r="AE4" t="n">
-        <v>619763.4769703171</v>
+        <v>665871.4848207997</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.542919169030038e-06</v>
+        <v>5.037991055230301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.440625</v>
       </c>
       <c r="AH4" t="n">
-        <v>560614.1205717722</v>
+        <v>602321.6448660002</v>
       </c>
     </row>
     <row r="5">
@@ -22613,28 +22613,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>448.2321479119805</v>
+        <v>481.9308185522806</v>
       </c>
       <c r="AB5" t="n">
-        <v>613.2909993799168</v>
+        <v>659.3990072303994</v>
       </c>
       <c r="AC5" t="n">
-        <v>554.7593671584204</v>
+        <v>596.4668914526485</v>
       </c>
       <c r="AD5" t="n">
-        <v>448232.1479119805</v>
+        <v>481930.8185522806</v>
       </c>
       <c r="AE5" t="n">
-        <v>613290.9993799168</v>
+        <v>659399.0072303994</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.558012543595815e-06</v>
+        <v>5.067893809113207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.402083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>554759.3671584205</v>
+        <v>596466.8914526484</v>
       </c>
     </row>
   </sheetData>
